--- a/cars.xlsx
+++ b/cars.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/studio2/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/studio2/IdeaProjects/Summer2019OnlineTestNGSeleniumProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EA66775-086A-EE43-BDF1-E13C91EA5ECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9DED93-EB6A-DE4C-B4A0-2663CC5E08FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10240" yWindow="0" windowWidth="21760" windowHeight="18000" xr2:uid="{374DE628-534F-4D4A-BE20-2DAEED418ED8}"/>
+    <workbookView xWindow="10240" yWindow="460" windowWidth="21760" windowHeight="15920" xr2:uid="{374DE628-534F-4D4A-BE20-2DAEED418ED8}"/>
   </bookViews>
   <sheets>
     <sheet name="cars" sheetId="1" r:id="rId1"/>
@@ -51,26 +51,14 @@
     <t>red</t>
   </si>
   <si>
-    <r>
-      <t>Model Year</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
+    <t>Model Year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -85,13 +73,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -443,7 +424,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="209" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -482,5 +463,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/cars.xlsx
+++ b/cars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/studio2/IdeaProjects/Summer2019OnlineTestNGSeleniumProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9DED93-EB6A-DE4C-B4A0-2663CC5E08FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DB5E1D-2E6C-B14B-93C7-ABB6065897CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10240" yWindow="460" windowWidth="21760" windowHeight="15920" xr2:uid="{374DE628-534F-4D4A-BE20-2DAEED418ED8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32000" windowHeight="15920" xr2:uid="{374DE628-534F-4D4A-BE20-2DAEED418ED8}"/>
   </bookViews>
   <sheets>
     <sheet name="cars" sheetId="1" r:id="rId1"/>
@@ -36,22 +36,22 @@
     <t>License Plate</t>
   </si>
   <si>
-    <t>test_plates_123</t>
-  </si>
-  <si>
     <t>Driver</t>
   </si>
   <si>
-    <t>Michael Schumacher</t>
-  </si>
-  <si>
     <t>Color</t>
   </si>
   <si>
-    <t>red</t>
-  </si>
-  <si>
     <t>Model Year</t>
+  </si>
+  <si>
+    <t>Fernando Alonso</t>
+  </si>
+  <si>
+    <t>TEST-PLATE</t>
+  </si>
+  <si>
+    <t>Green</t>
   </si>
 </sst>
 </file>
@@ -424,12 +424,12 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="209" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -438,27 +438,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>2020</v>
+        <v>2001</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
